--- a/TestData/DB.xlsx
+++ b/TestData/DB.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{780553E2-5CE4-44DE-8A93-6CAB20ED5509}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D34BACE-EC8D-4B3F-B31D-0723F1E7AE96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DB" sheetId="2" r:id="rId1"/>
@@ -39,16 +39,16 @@
     <t>path</t>
   </si>
   <si>
-    <t>Lackme</t>
-  </si>
-  <si>
-    <t>Inventory contrl</t>
-  </si>
-  <si>
     <t>1rd sprint</t>
   </si>
   <si>
     <t>C:/Users/91703/.jenkins/workspace/Dashboard/test-output/Suite/Test.html</t>
+  </si>
+  <si>
+    <t>Microsoft</t>
+  </si>
+  <si>
+    <t>Sydney</t>
   </si>
 </sst>
 </file>
@@ -491,8 +491,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -534,16 +534,16 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -559,7 +559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{776F3234-C303-43F5-AAF1-71C4ACFEE5C2}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -572,7 +572,7 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
